--- a/Bruce/original/WL met summary to_16-1.xlsx
+++ b/Bruce/original/WL met summary to_16-1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="63">
   <si>
     <t>values-use for graphing</t>
   </si>
@@ -211,6 +211,9 @@
   <si>
     <t>ON</t>
   </si>
+  <si>
+    <t>avg_UT</t>
+  </si>
 </sst>
 </file>
 
@@ -1522,11 +1525,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1446076768"/>
-        <c:axId val="1446070784"/>
+        <c:axId val="-2022671280"/>
+        <c:axId val="-2022676720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1446076768"/>
+        <c:axId val="-2022671280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,7 +1566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1446070784"/>
+        <c:crossAx val="-2022676720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1571,7 +1574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1446070784"/>
+        <c:axId val="-2022676720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +1660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1446076768"/>
+        <c:crossAx val="-2022671280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2903,11 +2906,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1446082752"/>
-        <c:axId val="1446072960"/>
+        <c:axId val="-2022674544"/>
+        <c:axId val="-2022669648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1446082752"/>
+        <c:axId val="-2022674544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2944,7 +2947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1446072960"/>
+        <c:crossAx val="-2022669648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2952,7 +2955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1446072960"/>
+        <c:axId val="-2022669648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,7 +3048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1446082752"/>
+        <c:crossAx val="-2022674544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3525,11 +3528,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1449636608"/>
-        <c:axId val="1449648576"/>
+        <c:axId val="-2021989136"/>
+        <c:axId val="-2021984240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1449636608"/>
+        <c:axId val="-2021989136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3635,7 +3638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449648576"/>
+        <c:crossAx val="-2021984240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3643,7 +3646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1449648576"/>
+        <c:axId val="-2021984240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3750,7 +3753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1449636608"/>
+        <c:crossAx val="-2021989136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3803,6 +3806,490 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>October - June Precipitation:</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for UT Sites</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$BW$3:$CF$3</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>07-08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>08-09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10-11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12-13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14-15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15-16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30-yr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$BW$15:$CF$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>254.07565049999982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230.03730329999988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255.10162089999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>382.51635099999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178.57165689999985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200.78844239999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187.83005324999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201.94556059999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>339.51263919999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>274.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2021991312"/>
+        <c:axId val="-2021993488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2021991312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Water Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2021993488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2021993488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Precipitation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2021991312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3895,6 +4382,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5443,6 +5970,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5511,16 +6541,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>424815</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>120015</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5534,6 +6564,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5808,7 +6868,7 @@
   <dimension ref="A1:CH64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BV1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CH20" sqref="CH20"/>
+      <selection activeCell="BW17" sqref="BW17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -8307,6 +9367,49 @@
       <c r="Y15" s="7">
         <v>211.8361937999999</v>
       </c>
+      <c r="BV15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW15">
+        <f>AVERAGE(BW12:BW14)</f>
+        <v>254.07565049999982</v>
+      </c>
+      <c r="BX15">
+        <f t="shared" ref="BX15:CF15" si="14">AVERAGE(BX12:BX14)</f>
+        <v>230.03730329999988</v>
+      </c>
+      <c r="BY15">
+        <f t="shared" si="14"/>
+        <v>255.10162089999994</v>
+      </c>
+      <c r="BZ15">
+        <f t="shared" si="14"/>
+        <v>382.51635099999993</v>
+      </c>
+      <c r="CA15">
+        <f t="shared" si="14"/>
+        <v>178.57165689999985</v>
+      </c>
+      <c r="CB15">
+        <f t="shared" si="14"/>
+        <v>200.78844239999989</v>
+      </c>
+      <c r="CC15">
+        <f t="shared" si="14"/>
+        <v>187.83005324999993</v>
+      </c>
+      <c r="CD15">
+        <f t="shared" si="14"/>
+        <v>201.94556059999994</v>
+      </c>
+      <c r="CE15">
+        <f t="shared" si="14"/>
+        <v>339.51263919999991</v>
+      </c>
+      <c r="CF15">
+        <f t="shared" si="14"/>
+        <v>274.57</v>
+      </c>
     </row>
     <row r="16" spans="1:86" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
@@ -8695,31 +9798,31 @@
         <v>10.01122131147541</v>
       </c>
       <c r="AG20">
-        <f t="shared" ref="AG20:AM23" si="14">(IF(D20="","",D20))</f>
+        <f t="shared" ref="AG20:AM23" si="15">(IF(D20="","",D20))</f>
         <v>8.8904958904109623</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.6173643835616396</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.9699726027397233</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.0884849315068532</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.0734410958904128</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.842230136986306</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.723583561643826</v>
       </c>
       <c r="AR20">
@@ -8733,35 +9836,35 @@
         <v>7.4153357664233575</v>
       </c>
       <c r="AU20">
-        <f t="shared" ref="AU20:BA23" si="15">(IF(R20="","",R20))</f>
+        <f t="shared" ref="AU20:BA23" si="16">(IF(R20="","",R20))</f>
         <v>6.1000732600732626</v>
       </c>
       <c r="AV20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.6152307692307675</v>
       </c>
       <c r="AW20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.4968021978021966</v>
       </c>
       <c r="AX20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.945666666666666</v>
       </c>
       <c r="AY20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.0517655677655657</v>
       </c>
       <c r="AZ20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.6965531135531107</v>
       </c>
       <c r="BA20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.6519450549450525</v>
       </c>
       <c r="BB20">
-        <f t="shared" ref="BB20:BB30" si="16">Y20</f>
+        <f t="shared" ref="BB20:BB30" si="17">Y20</f>
         <v>7.2252637362637362</v>
       </c>
       <c r="BH20" t="s">
@@ -8882,35 +9985,35 @@
         <v>28</v>
       </c>
       <c r="AF21">
-        <f t="shared" ref="AF21:AF23" si="17">(IF(C21="","",C21))</f>
+        <f t="shared" ref="AF21:AF23" si="18">(IF(C21="","",C21))</f>
         <v>6.6915573770491799</v>
       </c>
       <c r="AG21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.994978082191782</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.7199013698630132</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.0556547945205423</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.3589780821917792</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.372013698630143</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.2835534246575353</v>
       </c>
       <c r="AR21">
@@ -8920,39 +10023,39 @@
         <v>28</v>
       </c>
       <c r="AT21">
-        <f t="shared" ref="AT21:AT23" si="18">(IF(Q21="","",Q21))</f>
+        <f t="shared" ref="AT21:AT23" si="19">(IF(Q21="","",Q21))</f>
         <v>2.6430729927007297</v>
       </c>
       <c r="AU21" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.9606483516483517</v>
       </c>
       <c r="AW21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.0938388278388276</v>
       </c>
       <c r="AX21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.9728754578754573</v>
       </c>
       <c r="AY21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.7422673992674005</v>
       </c>
       <c r="AZ21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.2172747252747262</v>
       </c>
       <c r="BA21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.8378498168498165</v>
       </c>
       <c r="BB21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.5203919413919431</v>
       </c>
       <c r="BH21" t="s">
@@ -9069,35 +10172,35 @@
         <v>29</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.264131147540983</v>
       </c>
       <c r="AG22" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH22" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AI22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.200616438356167</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.53301095890412</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.779175342465765</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.982517808219175</v>
       </c>
       <c r="AM22" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AR22">
@@ -9107,39 +10210,39 @@
         <v>29</v>
       </c>
       <c r="AT22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.6127335766423352</v>
       </c>
       <c r="AU22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV22" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AW22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.5866043956043923</v>
       </c>
       <c r="AX22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.608772893772894</v>
       </c>
       <c r="AY22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.5388681318681332</v>
       </c>
       <c r="AZ22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.639849816849816</v>
       </c>
       <c r="BA22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.150743589743593</v>
       </c>
       <c r="BB22" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="BH22" t="s">
@@ -9265,35 +10368,35 @@
         <v>31</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.2941612021857978</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.073884931506845</v>
       </c>
       <c r="AH23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AI23" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.584750684931494</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.7907095890411</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.9449808219178095</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.08501095890411</v>
       </c>
       <c r="AR23">
@@ -9303,39 +10406,39 @@
         <v>31</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.0235437956204381</v>
       </c>
       <c r="AU23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.2363992673992676</v>
       </c>
       <c r="AV23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.4788315018315012</v>
       </c>
       <c r="AW23" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.9471758241758224</v>
       </c>
       <c r="AY23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.173919413919414</v>
       </c>
       <c r="AZ23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5079743589743577</v>
       </c>
       <c r="BA23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.6633113553113539</v>
       </c>
       <c r="BB23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.7294322344322337</v>
       </c>
       <c r="BH23" t="s">
@@ -9452,31 +10555,31 @@
         <v/>
       </c>
       <c r="AG24" t="str">
-        <f t="shared" ref="AG24:AM24" si="19">(IF(D25="","",D25))</f>
+        <f t="shared" ref="AG24:AM24" si="20">(IF(D25="","",D25))</f>
         <v/>
       </c>
       <c r="AH24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.8764712328767139</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.688663013698628</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.3418712328767173</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.3161643835616452</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.4966164383561669</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.5258356164383544</v>
       </c>
       <c r="AR24">
@@ -9490,35 +10593,35 @@
         <v/>
       </c>
       <c r="AU24" t="str">
-        <f t="shared" ref="AU24:BA24" si="20">(IF(R25="","",R25))</f>
+        <f t="shared" ref="AU24:BA24" si="21">(IF(R25="","",R25))</f>
         <v/>
       </c>
       <c r="AV24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.305827586206896</v>
       </c>
       <c r="AW24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.9135750915750913</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.4491318681318672</v>
       </c>
       <c r="AY24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.3758205128205123</v>
       </c>
       <c r="AZ24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.483615384615383</v>
       </c>
       <c r="BA24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.0597582417582441</v>
       </c>
       <c r="BB24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.0236336996336979</v>
       </c>
       <c r="BH24" t="s">
@@ -9643,31 +10746,31 @@
         <v/>
       </c>
       <c r="AG25">
-        <f t="shared" ref="AG25:AM25" si="21">(IF(D27="","",D27))</f>
+        <f t="shared" ref="AG25:AM25" si="22">(IF(D27="","",D27))</f>
         <v>8.5286821917808204</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.4956027397260279</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.3505835616438411</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10.352084931506853</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9.0790027397260324</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10.180424657534246</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>10.325594520547945</v>
       </c>
       <c r="AR25">
@@ -9681,35 +10784,35 @@
         <v/>
       </c>
       <c r="AU25">
-        <f t="shared" ref="AU25:BA25" si="22">(IF(R27="","",R27))</f>
+        <f t="shared" ref="AU25:BA25" si="23">(IF(R27="","",R27))</f>
         <v>5.1013772893772877</v>
       </c>
       <c r="AV25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.7214688644688647</v>
       </c>
       <c r="AW25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.0286959706959697</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.8931538461538446</v>
       </c>
       <c r="AY25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.7743919413919427</v>
       </c>
       <c r="AZ25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.974728937728937</v>
       </c>
       <c r="BA25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.6516227106227088</v>
       </c>
       <c r="BB25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.0558571428571426</v>
       </c>
       <c r="BH25" t="s">
@@ -9835,35 +10938,35 @@
         <v>36</v>
       </c>
       <c r="AF26">
-        <f t="shared" ref="AF26:AM26" si="23">(IF(C26="","",C26))</f>
+        <f t="shared" ref="AF26:AM26" si="24">(IF(C26="","",C26))</f>
         <v>6.9421857923497283</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.7048904109589014</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.7981863013698565</v>
       </c>
       <c r="AI26" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.5537835616438382</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.1303945205479469</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.5704657534246529</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.6780356164383559</v>
       </c>
       <c r="AR26">
@@ -9873,39 +10976,39 @@
         <v>36</v>
       </c>
       <c r="AT26">
-        <f t="shared" ref="AT26:BA26" si="24">(IF(Q26="","",Q26))</f>
+        <f t="shared" ref="AT26:BA26" si="25">(IF(Q26="","",Q26))</f>
         <v>2.5039781021897811</v>
       </c>
       <c r="AU26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3.3853882783882803</v>
       </c>
       <c r="AV26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.0055018315018316</v>
       </c>
       <c r="AW26" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AX26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.3196300366300378</v>
       </c>
       <c r="AY26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.0464139194139213</v>
       </c>
       <c r="AZ26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.0575164835164834</v>
       </c>
       <c r="BA26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.970813186813186</v>
       </c>
       <c r="BB26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.0050439560439557</v>
       </c>
       <c r="BH26" t="s">
@@ -10030,31 +11133,31 @@
         <v/>
       </c>
       <c r="AG27" t="str">
-        <f t="shared" ref="AG27:AM30" si="25">(IF(D29="","",D29))</f>
+        <f t="shared" ref="AG27:AM30" si="26">(IF(D29="","",D29))</f>
         <v/>
       </c>
       <c r="AH27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>10.293145205479448</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.7051972602739802</v>
       </c>
       <c r="AJ27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>12.285908839779012</v>
       </c>
       <c r="AK27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>10.031580110497233</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>11.962320441988959</v>
       </c>
       <c r="AM27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>12.382994475138123</v>
       </c>
       <c r="AR27">
@@ -10068,35 +11171,35 @@
         <v>5.6709233576642317</v>
       </c>
       <c r="AU27" t="str">
-        <f t="shared" ref="AU27:BA30" si="26">(IF(R29="","",R29))</f>
+        <f t="shared" ref="AU27:BA30" si="27">(IF(R29="","",R29))</f>
         <v/>
       </c>
       <c r="AV27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.1997619047619033</v>
       </c>
       <c r="AW27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.4830586080586068</v>
       </c>
       <c r="AX27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.0533333333333363</v>
       </c>
       <c r="AY27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.162125925925924</v>
       </c>
       <c r="AZ27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830185185185201</v>
       </c>
       <c r="BA27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.8916148148148135</v>
       </c>
       <c r="BB27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.2087765567765558</v>
       </c>
       <c r="BH27" t="s">
@@ -10218,35 +11321,35 @@
         <v>39</v>
       </c>
       <c r="AF28">
-        <f t="shared" ref="AF28:AF30" si="27">(IF(C30="","",C30))</f>
+        <f t="shared" ref="AF28:AF30" si="28">(IF(C30="","",C30))</f>
         <v>9.2241393442622854</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.2479205479452098</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.5395260273972617</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7575452054794471</v>
       </c>
       <c r="AJ28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>11.116824657534245</v>
       </c>
       <c r="AK28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.9233369863013738</v>
       </c>
       <c r="AL28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>10.680326027397253</v>
       </c>
       <c r="AM28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>11.15895068493151</v>
       </c>
       <c r="AR28">
@@ -10256,39 +11359,39 @@
         <v>39</v>
       </c>
       <c r="AT28">
-        <f t="shared" ref="AT28:AT30" si="28">(IF(Q30="","",Q30))</f>
+        <f t="shared" ref="AT28:AT30" si="29">(IF(Q30="","",Q30))</f>
         <v>4.6320072992700725</v>
       </c>
       <c r="AU28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.7641831501831504</v>
       </c>
       <c r="AV28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.469959706959707</v>
       </c>
       <c r="AW28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.6519743589743596</v>
       </c>
       <c r="AX28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.5825238095238108</v>
       </c>
       <c r="AY28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.5327362637362638</v>
       </c>
       <c r="AZ28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.8826849816849807</v>
       </c>
       <c r="BA28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.0419157509157486</v>
       </c>
       <c r="BB28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.0763443223443225</v>
       </c>
       <c r="BH28" t="s">
@@ -10405,35 +11508,35 @@
         <v>40</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.3472841530054627</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.467189041095887</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.6166849315068479</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.7717287671232835</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>11.375378453038689</v>
       </c>
       <c r="AK29" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AL29" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AM29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>11.461013812154698</v>
       </c>
       <c r="AR29">
@@ -10443,39 +11546,39 @@
         <v>40</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.9229635036496351</v>
       </c>
       <c r="AU29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.824996336996338</v>
       </c>
       <c r="AV29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.4801501831501831</v>
       </c>
       <c r="AW29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.76703663003663</v>
       </c>
       <c r="AX29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.4794777777777801</v>
       </c>
       <c r="AY29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AZ29" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="BA29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.7226629629629597</v>
       </c>
       <c r="BB29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.24514074074074</v>
       </c>
       <c r="BH29" t="s">
@@ -10601,77 +11704,77 @@
         <v>41</v>
       </c>
       <c r="AF30" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="26"/>
+        <v>9.4193369863013743</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="26"/>
+        <v>9.6731561643835615</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="26"/>
+        <v>9.6485643835616486</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="26"/>
+        <v>10.79292602739725</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="26"/>
+        <v>9.642906849315068</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="26"/>
+        <v>11.822005479452045</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="26"/>
+        <v>11.154986301369862</v>
+      </c>
+      <c r="AR30">
+        <v>9.5</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT30" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="AU30" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="AG30">
-        <f t="shared" si="25"/>
-        <v>9.4193369863013743</v>
-      </c>
-      <c r="AH30">
-        <f t="shared" si="25"/>
-        <v>9.6731561643835615</v>
-      </c>
-      <c r="AI30">
-        <f t="shared" si="25"/>
-        <v>9.6485643835616486</v>
-      </c>
-      <c r="AJ30">
-        <f t="shared" si="25"/>
-        <v>10.79292602739725</v>
-      </c>
-      <c r="AK30">
-        <f t="shared" si="25"/>
-        <v>9.642906849315068</v>
-      </c>
-      <c r="AL30">
-        <f t="shared" si="25"/>
-        <v>11.822005479452045</v>
-      </c>
-      <c r="AM30">
-        <f t="shared" si="25"/>
-        <v>11.154986301369862</v>
-      </c>
-      <c r="AR30">
-        <v>9.5</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT30" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="AU30" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
       <c r="AV30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.6446996336996333</v>
       </c>
       <c r="AW30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.9106300366300335</v>
       </c>
       <c r="AX30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.0081391941391971</v>
       </c>
       <c r="AY30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.0481538461538467</v>
       </c>
       <c r="AZ30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.3709963369963365</v>
       </c>
       <c r="BA30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>8.3682490842490846</v>
       </c>
       <c r="BB30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.4651501831501843</v>
       </c>
       <c r="BH30" t="s">
@@ -11159,31 +12262,31 @@
         <v>18.258934426229491</v>
       </c>
       <c r="AG36">
-        <f t="shared" ref="AG36:AM39" si="29">(IF(D36="","",D36))</f>
+        <f t="shared" ref="AG36:AM39" si="30">(IF(D36="","",D36))</f>
         <v>17.043052054794536</v>
       </c>
       <c r="AH36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15.955594520547939</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15.699975342465748</v>
       </c>
       <c r="AJ36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16.881515068493162</v>
       </c>
       <c r="AK36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>17.296504109589044</v>
       </c>
       <c r="AL36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18.710821917808225</v>
       </c>
       <c r="AM36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18.685813698630113</v>
       </c>
       <c r="AS36" t="s">
@@ -11194,35 +12297,35 @@
         <v>14.808740875912406</v>
       </c>
       <c r="AU36">
-        <f t="shared" ref="AU36:BA39" si="30">(IF(R36="","",R36))</f>
+        <f t="shared" ref="AU36:BA39" si="31">(IF(R36="","",R36))</f>
         <v>13.52502930402931</v>
       </c>
       <c r="AV36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>11.355853479853478</v>
       </c>
       <c r="AW36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>10.769655677655685</v>
       </c>
       <c r="AX36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>12.03920146520147</v>
       </c>
       <c r="AY36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>13.283758241758244</v>
       </c>
       <c r="AZ36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>14.490223443223444</v>
       </c>
       <c r="BA36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>15.914648351648367</v>
       </c>
       <c r="BB36">
-        <f t="shared" ref="BB36:BB46" si="31">Y36</f>
+        <f t="shared" ref="BB36:BB46" si="32">Y36</f>
         <v>13.829761904761899</v>
       </c>
       <c r="BH36" t="s">
@@ -11346,74 +12449,74 @@
         <v>28</v>
       </c>
       <c r="AF37">
-        <f t="shared" ref="AF37:AF39" si="32">(IF(C37="","",C37))</f>
+        <f t="shared" ref="AF37:AF39" si="33">(IF(C37="","",C37))</f>
         <v>15.551961748633865</v>
       </c>
       <c r="AG37" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AH37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15.178112328767122</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15.530282191780827</v>
       </c>
       <c r="AJ37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16.794810958904126</v>
       </c>
       <c r="AK37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>19.026073972602738</v>
       </c>
       <c r="AL37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18.214821917808226</v>
       </c>
       <c r="AM37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>18.410950684931507</v>
       </c>
       <c r="AS37" t="s">
         <v>28</v>
       </c>
       <c r="AT37">
-        <f t="shared" ref="AT37:AT39" si="33">(IF(Q37="","",Q37))</f>
+        <f t="shared" ref="AT37:AT39" si="34">(IF(Q37="","",Q37))</f>
         <v>10.523445255474455</v>
       </c>
       <c r="AU37" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AV37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>10.398633699633693</v>
       </c>
       <c r="AW37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>10.354688644688643</v>
       </c>
       <c r="AX37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>12.043120879120886</v>
       </c>
       <c r="AY37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>14.237179487179482</v>
       </c>
       <c r="AZ37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>13.881135531135529</v>
       </c>
       <c r="BA37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>15.042893772893777</v>
       </c>
       <c r="BB37">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>13.506036630036631</v>
       </c>
       <c r="BH37" t="s">
@@ -11530,74 +12633,74 @@
         <v>29</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>18.031704918032784</v>
       </c>
       <c r="AG38" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AH38" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AI38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>17.737747945205481</v>
       </c>
       <c r="AJ38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>19.396882191780833</v>
       </c>
       <c r="AK38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>21.343471232876734</v>
       </c>
       <c r="AL38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>22.505863013698622</v>
       </c>
       <c r="AM38" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS38" t="s">
         <v>29</v>
       </c>
       <c r="AT38">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>13.414321167883216</v>
       </c>
       <c r="AU38" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AV38" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AW38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>12.854879120879119</v>
       </c>
       <c r="AX38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>14.753794871794872</v>
       </c>
       <c r="AY38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>17.102336996337002</v>
       </c>
       <c r="AZ38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>18.987421245421238</v>
       </c>
       <c r="BA38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>18.715439560439563</v>
       </c>
       <c r="BB38" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="BH38" t="s">
@@ -11723,74 +12826,74 @@
         <v>31</v>
       </c>
       <c r="AF39">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>15.300573770491802</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>17.646931506849317</v>
       </c>
       <c r="AH39" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="AI39" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AJ39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>19.297786301369882</v>
       </c>
       <c r="AK39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16.195657534246564</v>
       </c>
       <c r="AL39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>17.153465753424648</v>
       </c>
       <c r="AM39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>20.164750684931498</v>
       </c>
       <c r="AS39" t="s">
         <v>31</v>
       </c>
       <c r="AT39">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>10.31284306569343</v>
       </c>
       <c r="AU39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>12.932322344322342</v>
       </c>
       <c r="AV39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>10.674769230769234</v>
       </c>
       <c r="AW39" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>13.815721611721605</v>
       </c>
       <c r="AY39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>11.68800732600733</v>
       </c>
       <c r="AZ39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>12.507197802197799</v>
       </c>
       <c r="BA39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>15.774333333333333</v>
       </c>
       <c r="BB39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>14.772454212454214</v>
       </c>
       <c r="BH39" t="s">
@@ -11911,31 +13014,31 @@
         <v/>
       </c>
       <c r="AG40" t="str">
-        <f t="shared" ref="AG40:AM40" si="34">(IF(D41="","",D41))</f>
+        <f t="shared" ref="AG40:AM40" si="35">(IF(D41="","",D41))</f>
         <v/>
       </c>
       <c r="AH40">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>15.21431506849315</v>
       </c>
       <c r="AI40">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>15.268208219178081</v>
       </c>
       <c r="AJ40">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>17.228449315068502</v>
       </c>
       <c r="AK40">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>16.190257534246587</v>
       </c>
       <c r="AL40">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>17.039578082191785</v>
       </c>
       <c r="AM40">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>17.040452054794535</v>
       </c>
       <c r="AS40" t="s">
@@ -11946,35 +13049,35 @@
         <v/>
       </c>
       <c r="AU40" t="str">
-        <f t="shared" ref="AU40:BA40" si="35">(IF(R41="","",R41))</f>
+        <f t="shared" ref="AU40:BA40" si="36">(IF(R41="","",R41))</f>
         <v/>
       </c>
       <c r="AV40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>10.237348659003834</v>
       </c>
       <c r="AW40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>10.358135531135531</v>
       </c>
       <c r="AX40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>13.000923076923078</v>
       </c>
       <c r="AY40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>12.733747252747255</v>
       </c>
       <c r="AZ40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>12.9102564102564</v>
       </c>
       <c r="BA40">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>14.375875457875461</v>
       </c>
       <c r="BB40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>11.474985347985347</v>
       </c>
       <c r="BH40" t="s">
@@ -12097,31 +13200,31 @@
         <v/>
       </c>
       <c r="AG41">
-        <f t="shared" ref="AG41:AM41" si="36">(IF(D43="","",D43))</f>
+        <f t="shared" ref="AG41:AM41" si="37">(IF(D43="","",D43))</f>
         <v>16.891624657534244</v>
       </c>
       <c r="AH41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>16.733367123287668</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>16.9307808219178</v>
       </c>
       <c r="AJ41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>19.154506849315077</v>
       </c>
       <c r="AK41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>17.739254794520551</v>
       </c>
       <c r="AL41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>18.793808219178086</v>
       </c>
       <c r="AM41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>18.949380821917813</v>
       </c>
       <c r="AS41" t="s">
@@ -12132,35 +13235,35 @@
         <v/>
       </c>
       <c r="AU41">
-        <f t="shared" ref="AU41:BA41" si="37">(IF(R43="","",R43))</f>
+        <f t="shared" ref="AU41:BA41" si="38">(IF(R43="","",R43))</f>
         <v>12.66938095238095</v>
       </c>
       <c r="AV41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>11.03855677655678</v>
       </c>
       <c r="AW41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>11.184501831501828</v>
       </c>
       <c r="AX41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>14.153377289377298</v>
       </c>
       <c r="AY41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13.795666666666666</v>
       </c>
       <c r="AZ41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>14.06584249084249</v>
       </c>
       <c r="BA41">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>15.853021978021982</v>
       </c>
       <c r="BB41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>11.676047619047623</v>
       </c>
       <c r="BH41" t="s">
@@ -12286,74 +13389,74 @@
         <v>36</v>
       </c>
       <c r="AF42">
-        <f t="shared" ref="AF42:AM42" si="38">(IF(C42="","",C42))</f>
+        <f t="shared" ref="AF42:AM42" si="39">(IF(C42="","",C42))</f>
         <v>15.785581967213115</v>
       </c>
       <c r="AG42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>15.275887671232871</v>
       </c>
       <c r="AH42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>14.67967123287672</v>
       </c>
       <c r="AI42" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AJ42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>16.94996712328766</v>
       </c>
       <c r="AK42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>15.643841095890405</v>
       </c>
       <c r="AL42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>17.027945205479455</v>
       </c>
       <c r="AM42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>17.091052054794517</v>
       </c>
       <c r="AS42" t="s">
         <v>36</v>
       </c>
       <c r="AT42">
-        <f t="shared" ref="AT42:BA42" si="39">(IF(Q42="","",Q42))</f>
+        <f t="shared" ref="AT42:BA42" si="40">(IF(Q42="","",Q42))</f>
         <v>10.728583941605839</v>
       </c>
       <c r="AU42">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>11.488029304029309</v>
       </c>
       <c r="AV42">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>9.793113553113546</v>
       </c>
       <c r="AW42" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="AX42">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>12.453252747252749</v>
       </c>
       <c r="AY42">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>12.166128205128203</v>
       </c>
       <c r="AZ42">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>12.524007326007331</v>
       </c>
       <c r="BA42">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>14.175380952380957</v>
       </c>
       <c r="BB42">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>11.750868131868131</v>
       </c>
       <c r="BH42" t="s">
@@ -12477,31 +13580,31 @@
         <v/>
       </c>
       <c r="AG43" t="str">
-        <f t="shared" ref="AG43:AM46" si="40">(IF(D45="","",D45))</f>
+        <f t="shared" ref="AG43:AM46" si="41">(IF(D45="","",D45))</f>
         <v/>
       </c>
       <c r="AH43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16.248813698630123</v>
       </c>
       <c r="AI43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>15.591715068493151</v>
       </c>
       <c r="AJ43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>18.483143646408827</v>
       </c>
       <c r="AK43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16.28782872928177</v>
       </c>
       <c r="AL43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>17.86513259668509</v>
       </c>
       <c r="AM43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>18.331839779005534</v>
       </c>
       <c r="AS43" t="s">
@@ -12512,35 +13615,35 @@
         <v>13.482660583941607</v>
       </c>
       <c r="AU43" t="str">
-        <f t="shared" ref="AU43:BA46" si="41">(IF(R45="","",R45))</f>
+        <f t="shared" ref="AU43:BA46" si="42">(IF(R45="","",R45))</f>
         <v/>
       </c>
       <c r="AV43">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10.820238095238098</v>
       </c>
       <c r="AW43">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10.865970695970697</v>
       </c>
       <c r="AX43">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>12.896744444444442</v>
       </c>
       <c r="AY43">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>12.215048148148155</v>
       </c>
       <c r="AZ43">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>12.787351851851849</v>
       </c>
       <c r="BA43">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>14.762911111111105</v>
       </c>
       <c r="BB43">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>13.850472527472538</v>
       </c>
       <c r="BH43" t="s">
@@ -12660,74 +13763,74 @@
         <v>39</v>
       </c>
       <c r="AF44">
-        <f t="shared" ref="AF44:AF46" si="42">(IF(C46="","",C46))</f>
+        <f t="shared" ref="AF44:AF46" si="43">(IF(C46="","",C46))</f>
         <v>17.262724043715867</v>
       </c>
       <c r="AG44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>17.415339726027408</v>
       </c>
       <c r="AH44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>17.291841095890412</v>
       </c>
       <c r="AI44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16.716153424657545</v>
       </c>
       <c r="AJ44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>19.559561643835625</v>
       </c>
       <c r="AK44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16.828536986301362</v>
       </c>
       <c r="AL44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>18.782147945205491</v>
       </c>
       <c r="AM44">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>19.16913424657535</v>
       </c>
       <c r="AS44" t="s">
         <v>39</v>
       </c>
       <c r="AT44">
-        <f t="shared" ref="AT44:AT46" si="43">(IF(Q46="","",Q46))</f>
+        <f t="shared" ref="AT44:AT46" si="44">(IF(Q46="","",Q46))</f>
         <v>12.172689781021898</v>
       </c>
       <c r="AU44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13.371062271062268</v>
       </c>
       <c r="AV44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>11.752457875457871</v>
       </c>
       <c r="AW44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>11.57601831501832</v>
       </c>
       <c r="AX44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>14.412443223443232</v>
       </c>
       <c r="AY44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13.072666666666661</v>
       </c>
       <c r="AZ44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13.551091575091583</v>
       </c>
       <c r="BA44">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>15.769307692307684</v>
       </c>
       <c r="BB44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>10.381853479853477</v>
       </c>
       <c r="BH44" t="s">
@@ -12844,74 +13947,74 @@
         <v>40</v>
       </c>
       <c r="AF45">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>19.412934426229505</v>
       </c>
       <c r="AG45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>19.360126027397246</v>
       </c>
       <c r="AH45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>18.853430136986294</v>
       </c>
       <c r="AI45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>18.390663013698628</v>
       </c>
       <c r="AJ45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>21.368232044198908</v>
       </c>
       <c r="AK45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AL45" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="AM45">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>21.168513812154696</v>
       </c>
       <c r="AS45" t="s">
         <v>40</v>
       </c>
       <c r="AT45">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>14.323854014598538</v>
       </c>
       <c r="AU45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>15.269164835164839</v>
       </c>
       <c r="AV45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13.41684615384615</v>
       </c>
       <c r="AW45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13.283340659340654</v>
       </c>
       <c r="AX45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>15.946211111111117</v>
       </c>
       <c r="AY45" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="AZ45" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="BA45">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>17.127200000000002</v>
       </c>
       <c r="BB45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>13.068037037037032</v>
       </c>
       <c r="BH45" t="s">
@@ -13037,74 +14140,74 @@
         <v>41</v>
       </c>
       <c r="AF46" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="AG46" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="41"/>
+        <v>18.732035616438363</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="41"/>
+        <v>19.711917808219191</v>
+      </c>
+      <c r="AJ46">
+        <f t="shared" si="41"/>
+        <v>20.551695890410965</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="41"/>
+        <v>19.429821917808216</v>
+      </c>
+      <c r="AL46">
+        <f t="shared" si="41"/>
+        <v>21.802726027397242</v>
+      </c>
+      <c r="AM46">
+        <f t="shared" si="41"/>
+        <v>20.718715068493157</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT46" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="AU46" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AG46" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="AH46">
-        <f t="shared" si="40"/>
-        <v>18.732035616438363</v>
-      </c>
-      <c r="AI46">
-        <f t="shared" si="40"/>
-        <v>19.711917808219191</v>
-      </c>
-      <c r="AJ46">
-        <f t="shared" si="40"/>
-        <v>20.551695890410965</v>
-      </c>
-      <c r="AK46">
-        <f t="shared" si="40"/>
-        <v>19.429821917808216</v>
-      </c>
-      <c r="AL46">
-        <f t="shared" si="40"/>
-        <v>21.802726027397242</v>
-      </c>
-      <c r="AM46">
-        <f t="shared" si="40"/>
-        <v>20.718715068493157</v>
-      </c>
-      <c r="AS46" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT46" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="AU46" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
       <c r="AV46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13.629212454212446</v>
       </c>
       <c r="AW46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>15.129783882783885</v>
       </c>
       <c r="AX46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>16.53936996336996</v>
       </c>
       <c r="AY46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>15.475952380952382</v>
       </c>
       <c r="AZ46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>17.135399267399269</v>
       </c>
       <c r="BA46">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>17.948597069597071</v>
       </c>
       <c r="BB46">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>13.808172161172156</v>
       </c>
       <c r="BH46" t="s">
@@ -13588,31 +14691,31 @@
         <v>2.0791584699453538</v>
       </c>
       <c r="AG52">
-        <f t="shared" ref="AG52:AM55" si="44">(IF(D52="","",D52))</f>
+        <f t="shared" ref="AG52:AM55" si="45">(IF(D52="","",D52))</f>
         <v>1.3758821917808222</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1.8930383561643853</v>
       </c>
       <c r="AI52">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.79827945205479456</v>
       </c>
       <c r="AJ52">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1.5107178082191774</v>
       </c>
       <c r="AK52">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1.2890657534246581</v>
       </c>
       <c r="AL52">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3.4384876712328762</v>
       </c>
       <c r="AM52">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3.1207424657534251</v>
       </c>
       <c r="AS52" t="s">
@@ -13623,35 +14726,35 @@
         <v>0.46222992700729859</v>
       </c>
       <c r="AU52">
-        <f t="shared" ref="AU52:BA55" si="45">(IF(R52="","",R52))</f>
+        <f t="shared" ref="AU52:BA55" si="46">(IF(R52="","",R52))</f>
         <v>-0.56579120879120903</v>
       </c>
       <c r="AV52">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-1.2456886446886457</v>
       </c>
       <c r="AW52">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-1.1812857142857143</v>
       </c>
       <c r="AX52">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-1.741007326007326</v>
       </c>
       <c r="AY52">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.70769597069596968</v>
       </c>
       <c r="AZ52">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-0.58810622710622773</v>
       </c>
       <c r="BA52">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1.8786080586080578</v>
       </c>
       <c r="BB52">
-        <f t="shared" ref="BB52:BB62" si="46">Y52</f>
+        <f t="shared" ref="BB52:BB62" si="47">Y52</f>
         <v>0.95226373626373628</v>
       </c>
       <c r="BH52" t="s">
@@ -13771,74 +14874,74 @@
         <v>28</v>
       </c>
       <c r="AF53">
-        <f t="shared" ref="AF53:AF55" si="47">(IF(C53="","",C53))</f>
+        <f t="shared" ref="AF53:AF55" si="48">(IF(C53="","",C53))</f>
         <v>-2.2294945355191249</v>
       </c>
       <c r="AG53" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AH53">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-1.0941397260273982</v>
       </c>
       <c r="AI53">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-2.1127890410958896</v>
       </c>
       <c r="AJ53">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-0.98248767123287506</v>
       </c>
       <c r="AK53">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2.8542465753424163E-2</v>
       </c>
       <c r="AL53">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.54783835616438403</v>
       </c>
       <c r="AM53">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.14901643835616507</v>
       </c>
       <c r="AS53" t="s">
         <v>28</v>
       </c>
       <c r="AT53">
-        <f t="shared" ref="AT53:AT55" si="48">(IF(Q53="","",Q53))</f>
+        <f t="shared" ref="AT53:AT55" si="49">(IF(Q53="","",Q53))</f>
         <v>-5.277032846715338</v>
       </c>
       <c r="AU53" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AV53">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-3.9568168498168483</v>
       </c>
       <c r="AW53">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-3.8086043956043958</v>
       </c>
       <c r="AX53">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-4.0543589743589736</v>
       </c>
       <c r="AY53">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-2.4390293040293027</v>
       </c>
       <c r="AZ53">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-2.9694981684981703</v>
       </c>
       <c r="BA53">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-1.09570695970696</v>
       </c>
       <c r="BB53">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-2.4354175824175819</v>
       </c>
       <c r="BH53" t="s">
@@ -13955,74 +15058,74 @@
         <v>29</v>
       </c>
       <c r="AF54">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.59893143524590109</v>
       </c>
       <c r="AG54" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AH54" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AI54">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.50451281999999942</v>
       </c>
       <c r="AJ54">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.57062409369862954</v>
       </c>
       <c r="AK54">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.51427139917808184</v>
       </c>
       <c r="AL54">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.70003735315068438</v>
       </c>
       <c r="AM54" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AS54" t="s">
         <v>29</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.88675182481751857</v>
       </c>
       <c r="AU54" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AV54" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AW54">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1.2561062271062273</v>
       </c>
       <c r="AX54">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1.5029706959706965</v>
       </c>
       <c r="AY54">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>3.4642967032967031</v>
       </c>
       <c r="AZ54">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.1108608058608063</v>
       </c>
       <c r="BA54">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>4.9598315018315029</v>
       </c>
       <c r="BB54" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="BH54" t="s">
@@ -14148,74 +15251,74 @@
         <v>31</v>
       </c>
       <c r="AF55">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1.7422513661202192</v>
       </c>
       <c r="AG55">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3.3162931506849338</v>
       </c>
       <c r="AH55" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="AI55" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AJ55">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.5198219178082208</v>
       </c>
       <c r="AK55">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>2.2471835616438351</v>
       </c>
       <c r="AL55">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>3.5270136986301344</v>
       </c>
       <c r="AM55">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>5.0747917808219141</v>
       </c>
       <c r="AS55" t="s">
         <v>31</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.79260508467153235</v>
       </c>
       <c r="AU55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1.1481713769230764</v>
       </c>
       <c r="AV55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.96386554615384601</v>
       </c>
       <c r="AW55" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AX55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.91467396153846059</v>
       </c>
       <c r="AY55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.63262903076923083</v>
       </c>
       <c r="AZ55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.62527006153846143</v>
       </c>
       <c r="BA55">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.86523367692307662</v>
       </c>
       <c r="BB55">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.78904857692307606</v>
       </c>
       <c r="BH55" t="s">
@@ -14330,31 +15433,31 @@
         <v/>
       </c>
       <c r="AG56" t="str">
-        <f t="shared" ref="AG56:AM56" si="49">(IF(D57="","",D57))</f>
+        <f t="shared" ref="AG56:AM56" si="50">(IF(D57="","",D57))</f>
         <v/>
       </c>
       <c r="AH56">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-2.6652904109588991</v>
       </c>
       <c r="AI56">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-2.8805452054794554</v>
       </c>
       <c r="AJ56">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-1.6956575342465727</v>
       </c>
       <c r="AK56">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-2.423271232876711</v>
       </c>
       <c r="AL56">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-1.1715260273972619</v>
       </c>
       <c r="AM56">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-0.89835890410958785</v>
       </c>
       <c r="AS56" t="s">
@@ -14365,35 +15468,35 @@
         <v/>
       </c>
       <c r="AU56" t="str">
-        <f t="shared" ref="AU56:BA56" si="50">(IF(R57="","",R57))</f>
+        <f t="shared" ref="AU56:BA56" si="51">(IF(R57="","",R57))</f>
         <v/>
       </c>
       <c r="AV56">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-6.7607509578544009</v>
       </c>
       <c r="AW56">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-5.6572930402930446</v>
       </c>
       <c r="AX56">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-5.2385091575091636</v>
       </c>
       <c r="AY56">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-5.0550695970695898</v>
       </c>
       <c r="AZ56">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-4.9512161172161191</v>
       </c>
       <c r="BA56">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-3.0755054945054945</v>
       </c>
       <c r="BB56">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-0.47246520146520188</v>
       </c>
       <c r="BH56" t="s">
@@ -14511,31 +15614,31 @@
         <v/>
       </c>
       <c r="AG57">
-        <f t="shared" ref="AG57:AM57" si="51">(IF(D59="","",D59))</f>
+        <f t="shared" ref="AG57:AM57" si="52">(IF(D59="","",D59))</f>
         <v>1.5017424657534271</v>
       </c>
       <c r="AH57">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1.446284931506848</v>
       </c>
       <c r="AI57">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1.2249424657534254</v>
       </c>
       <c r="AJ57">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2.7844082191780837</v>
       </c>
       <c r="AK57">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1.8952547945205482</v>
       </c>
       <c r="AL57">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>2.9397808219178083</v>
       </c>
       <c r="AM57">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>3.1857178082191795</v>
       </c>
       <c r="AS57" t="s">
@@ -14546,35 +15649,35 @@
         <v/>
       </c>
       <c r="AU57">
-        <f t="shared" ref="AU57:BA57" si="52">(IF(R59="","",R59))</f>
+        <f t="shared" ref="AU57:BA57" si="53">(IF(R59="","",R59))</f>
         <v>-1.1935604395604393</v>
       </c>
       <c r="AV57">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-2.5790366300366303</v>
       </c>
       <c r="AW57">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-1.9750000000000008</v>
       </c>
       <c r="AX57">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-1.3606593406593392</v>
       </c>
       <c r="AY57">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-1.0553186813186821</v>
       </c>
       <c r="AZ57">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>-0.938582417582419</v>
       </c>
       <c r="BA57">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0.82253846153846211</v>
       </c>
       <c r="BB57">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-4.7600915750915771</v>
       </c>
       <c r="BH57" t="s">
@@ -14700,74 +15803,74 @@
         <v>36</v>
       </c>
       <c r="AF58">
-        <f t="shared" ref="AF58:AM58" si="53">(IF(C58="","",C58))</f>
+        <f t="shared" ref="AF58:AM58" si="54">(IF(C58="","",C58))</f>
         <v>-2.5947841530054658</v>
       </c>
       <c r="AG58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-1.9539808219178072</v>
       </c>
       <c r="AH58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-1.739180821917808</v>
       </c>
       <c r="AI58" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AJ58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-0.3700794520547947</v>
       </c>
       <c r="AK58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-1.5451917808219191</v>
       </c>
       <c r="AL58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-0.12725753424657602</v>
       </c>
       <c r="AM58">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.25740547945205466</v>
       </c>
       <c r="AS58" t="s">
         <v>36</v>
       </c>
       <c r="AT58">
-        <f t="shared" ref="AT58:BA58" si="54">(IF(Q58="","",Q58))</f>
+        <f t="shared" ref="AT58:BA58" si="55">(IF(Q58="","",Q58))</f>
         <v>-6.6315291970802948</v>
       </c>
       <c r="AU58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-4.7149487179487171</v>
       </c>
       <c r="AV58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-5.997901098901095</v>
       </c>
       <c r="AW58" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="AX58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-4.2519633699633719</v>
       </c>
       <c r="AY58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-4.5061245421245424</v>
       </c>
       <c r="AZ58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-4.3908498168498173</v>
       </c>
       <c r="BA58">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-2.1810989010989017</v>
       </c>
       <c r="BB58">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-3.8569377289377296</v>
       </c>
       <c r="BH58" t="s">
@@ -14891,31 +15994,31 @@
         <v/>
       </c>
       <c r="AG59" t="str">
-        <f t="shared" ref="AG59:AM62" si="55">(IF(D61="","",D61))</f>
+        <f t="shared" ref="AG59:AM62" si="56">(IF(D61="","",D61))</f>
         <v/>
       </c>
       <c r="AH59">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4.8699589041095921</v>
       </c>
       <c r="AI59">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4.1993150684931466</v>
       </c>
       <c r="AJ59">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6.3049364640883967</v>
       </c>
       <c r="AK59">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>4.4767817679557993</v>
       </c>
       <c r="AL59">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6.3051049723756938</v>
       </c>
       <c r="AM59">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6.8581077348066302</v>
       </c>
       <c r="AS59" t="s">
@@ -14926,35 +16029,35 @@
         <v>-0.59182481751824878</v>
       </c>
       <c r="AU59" t="str">
-        <f t="shared" ref="AU59:BA62" si="56">(IF(R61="","",R61))</f>
+        <f t="shared" ref="AU59:BA62" si="57">(IF(R61="","",R61))</f>
         <v/>
       </c>
       <c r="AV59">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.38104029304029219</v>
       </c>
       <c r="AW59">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.49924175824175721</v>
       </c>
       <c r="AX59">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1.4476037037037039</v>
       </c>
       <c r="AY59">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.70247037037037108</v>
       </c>
       <c r="AZ59">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1.6614074074074077</v>
       </c>
       <c r="BA59">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>3.5436814814814812</v>
       </c>
       <c r="BB59">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-0.18791941391941383</v>
       </c>
       <c r="BH59" t="s">
@@ -15074,74 +16177,74 @@
         <v>39</v>
       </c>
       <c r="AF60">
-        <f t="shared" ref="AF60:AF62" si="57">(IF(C62="","",C62))</f>
+        <f t="shared" ref="AF60:AF62" si="58">(IF(C62="","",C62))</f>
         <v>1.7166038251366138</v>
       </c>
       <c r="AG60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1.90843287671233</v>
       </c>
       <c r="AH60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2.4931917808219128</v>
       </c>
       <c r="AI60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1.7136821917808227</v>
       </c>
       <c r="AJ60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>3.3743369863013717</v>
       </c>
       <c r="AK60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1.6823452054794503</v>
       </c>
       <c r="AL60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>3.3313616438356162</v>
       </c>
       <c r="AM60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>3.8859369863013646</v>
       </c>
       <c r="AS60" t="s">
         <v>39</v>
       </c>
       <c r="AT60">
-        <f t="shared" ref="AT60:AT62" si="58">(IF(Q62="","",Q62))</f>
+        <f t="shared" ref="AT60:AT62" si="59">(IF(Q62="","",Q62))</f>
         <v>-2.3620985401459866</v>
       </c>
       <c r="AU60">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-0.92300366300366332</v>
       </c>
       <c r="AV60">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-1.9543369963369943</v>
       </c>
       <c r="AW60">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-1.5075677655677666</v>
       </c>
       <c r="AX60">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-0.6474761904761912</v>
       </c>
       <c r="AY60">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-1.403117216117217</v>
       </c>
       <c r="AZ60">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-1.1008241758241739</v>
       </c>
       <c r="BA60">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1.1034835164835159</v>
       </c>
       <c r="BB60">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-2.0372271062271041</v>
       </c>
       <c r="BH60" t="s">
@@ -15258,74 +16361,74 @@
         <v>40</v>
       </c>
       <c r="AF61">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.90920218579235124</v>
       </c>
       <c r="AG61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1.2247041095890432</v>
       </c>
       <c r="AH61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1.8391534246575327</v>
       </c>
       <c r="AI61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.96742191780821885</v>
       </c>
       <c r="AJ61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2.9513535911602187</v>
       </c>
       <c r="AK61" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AL61" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AM61">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>3.3343618784530373</v>
       </c>
       <c r="AS61" t="s">
         <v>40</v>
       </c>
       <c r="AT61">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-3.0458467153284627</v>
       </c>
       <c r="AU61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-1.6669743589743626</v>
       </c>
       <c r="AV61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-2.7199780219780192</v>
       </c>
       <c r="AW61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-2.2264505494505498</v>
       </c>
       <c r="AX61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-1.4931407407407415</v>
       </c>
       <c r="AY61" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="AZ61" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="BA61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>9.1088888888890093E-2</v>
       </c>
       <c r="BB61">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2.105681481481481</v>
       </c>
       <c r="BH61" t="s">
@@ -15451,74 +16554,74 @@
         <v>41</v>
       </c>
       <c r="AF62" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AG62" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="AH62">
+        <f t="shared" si="56"/>
+        <v>1.0862849315068484</v>
+      </c>
+      <c r="AI62">
+        <f t="shared" si="56"/>
+        <v>0.88240410958904281</v>
+      </c>
+      <c r="AJ62">
+        <f t="shared" si="56"/>
+        <v>1.7370273972602743</v>
+      </c>
+      <c r="AK62">
+        <f t="shared" si="56"/>
+        <v>0.66037260273972487</v>
+      </c>
+      <c r="AL62">
+        <f t="shared" si="56"/>
+        <v>2.6901753424657544</v>
+      </c>
+      <c r="AM62">
+        <f t="shared" si="56"/>
+        <v>2.3459808219178044</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT62" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="AU62" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="AG62" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="AH62">
-        <f t="shared" si="55"/>
-        <v>1.0862849315068484</v>
-      </c>
-      <c r="AI62">
-        <f t="shared" si="55"/>
-        <v>0.88240410958904281</v>
-      </c>
-      <c r="AJ62">
-        <f t="shared" si="55"/>
-        <v>1.7370273972602743</v>
-      </c>
-      <c r="AK62">
-        <f t="shared" si="55"/>
-        <v>0.66037260273972487</v>
-      </c>
-      <c r="AL62">
-        <f t="shared" si="55"/>
-        <v>2.6901753424657544</v>
-      </c>
-      <c r="AM62">
-        <f t="shared" si="55"/>
-        <v>2.3459808219178044</v>
-      </c>
-      <c r="AS62" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT62" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="AU62" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
       <c r="AV62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-3.4879304029304028</v>
       </c>
       <c r="AW62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-2.0374304029304038</v>
       </c>
       <c r="AX62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-1.7380622710622728</v>
       </c>
       <c r="AY62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-2.8125347985348004</v>
       </c>
       <c r="AZ62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-1.5325824175824156</v>
       </c>
       <c r="BA62">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-8.5285714285716352E-2</v>
       </c>
       <c r="BB62">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-0.15628571428571431</v>
       </c>
       <c r="BH62" t="s">
